--- a/利润表/605179.xlsx
+++ b/利润表/605179.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>173994761.11</v>
+        <v>98925473.91</v>
       </c>
       <c r="P2" t="n">
-        <v>1997112513.68</v>
+        <v>1366047165.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1798927585.84</v>
+        <v>1270694580.05</v>
       </c>
       <c r="R2" t="n">
-        <v>14.5844735387</v>
+        <v>-3.2549836689</v>
       </c>
       <c r="S2" t="n">
-        <v>1212648710.53</v>
+        <v>819846264.14</v>
       </c>
       <c r="T2" t="n">
-        <v>1212648710.53</v>
+        <v>819846264.14</v>
       </c>
       <c r="U2" t="n">
-        <v>14.1973182809</v>
+        <v>-7.5105092301</v>
       </c>
       <c r="V2" t="n">
-        <v>432110229.55</v>
+        <v>340683680.93</v>
       </c>
       <c r="W2" t="n">
-        <v>107886797.21</v>
+        <v>75645482.88</v>
       </c>
       <c r="X2" t="n">
-        <v>-8078605.09</v>
+        <v>-4482712.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>220190825.23</v>
+        <v>132317957.37</v>
       </c>
       <c r="Z2" t="n">
-        <v>212414153.96</v>
+        <v>110910456.86</v>
       </c>
       <c r="AA2" t="n">
-        <v>38419392.85</v>
+        <v>11984982.95</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>13156601.2</v>
+        <v>7428859.85</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>13.797705172</v>
+        <v>-5.6686904298</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13.025871265288</v>
+        <v>-14.771507247109</v>
       </c>
       <c r="AR2" t="n">
-        <v>10.509461681907</v>
+        <v>-20.05</v>
       </c>
       <c r="AS2" t="n">
-        <v>160688061.11</v>
+        <v>85989708.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>6.613064219521</v>
+        <v>-21.478596157411</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/605179.xlsx
+++ b/利润表/605179.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,52 +729,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-08 00:00:00</t>
+          <t>2020-12-15 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>98925473.91</v>
+        <v>173994761.11</v>
       </c>
       <c r="P2" t="n">
-        <v>1366047165.1</v>
+        <v>1997112513.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>1270694580.05</v>
+        <v>1798927585.84</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.2549836689</v>
+        <v>14.5844735387</v>
       </c>
       <c r="S2" t="n">
-        <v>819846264.14</v>
+        <v>1212648710.53</v>
       </c>
       <c r="T2" t="n">
-        <v>819846264.14</v>
+        <v>1212648710.53</v>
       </c>
       <c r="U2" t="n">
-        <v>-7.5105092301</v>
+        <v>14.1973182809</v>
       </c>
       <c r="V2" t="n">
-        <v>340683680.93</v>
+        <v>432110229.55</v>
       </c>
       <c r="W2" t="n">
-        <v>75645482.88</v>
+        <v>107886797.21</v>
       </c>
       <c r="X2" t="n">
-        <v>-4482712.05</v>
+        <v>-8078605.09</v>
       </c>
       <c r="Y2" t="n">
-        <v>132317957.37</v>
+        <v>220190825.23</v>
       </c>
       <c r="Z2" t="n">
-        <v>110910456.86</v>
+        <v>212414153.96</v>
       </c>
       <c r="AA2" t="n">
-        <v>11984982.95</v>
+        <v>38419392.85</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>7428859.85</v>
+        <v>13156601.2</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-5.6686904298</v>
+        <v>13.797705172</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-14.771507247109</v>
+        <v>13.025871265288</v>
       </c>
       <c r="AR2" t="n">
-        <v>-20.05</v>
+        <v>10.509461681907</v>
       </c>
       <c r="AS2" t="n">
-        <v>85989708.08</v>
+        <v>160688061.11</v>
       </c>
       <c r="AT2" t="n">
-        <v>-21.478596157411</v>
+        <v>6.613064219521</v>
       </c>
     </row>
   </sheetData>
